--- a/backend/example.xlsx
+++ b/backend/example.xlsx
@@ -418,44 +418,44 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1234567890123</v>
+        <v>11622/2</v>
       </c>
       <c r="B2" t="str">
-        <v>Lámpara LED</v>
+        <v>ANAFE INDUSTRIAL FOCO 2 HLLAS 20000 CAL/H CAÑO ROJO</v>
       </c>
       <c r="C2" t="str">
-        <v>Lámpara 15W blanca</v>
+        <v>DESCRIPCION ANAFE INDUSTRIAL FOCO 2 HLLAS 20000 CAL/H CAÑO ROJO</v>
       </c>
       <c r="D2">
-        <v>10.99</v>
+        <v>7938.016429</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>9876543210987</v>
+        <v>986297</v>
       </c>
       <c r="B3" t="str">
-        <v>Teclado Gamer</v>
+        <v>DISPENSER USUHAIA FRIO CALOR BIDON</v>
       </c>
       <c r="C3" t="str">
-        <v>Mecánico RGB</v>
+        <v>DESCRIPCION DISPENSER USUHAIA FRIO CALOR BIDON</v>
       </c>
       <c r="D3">
-        <v>49.99</v>
+        <v>331528.925674</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>5558883331112</v>
+        <v>885794</v>
       </c>
       <c r="B4" t="str">
-        <v>Auriculares</v>
+        <v>DISPENSER LH V53 DE PIE PARA BIDON</v>
       </c>
       <c r="C4" t="str">
-        <v>Bluetooth inalámbricos</v>
+        <v>DESCRIPCION DISPENSER LH V53 DE PIE PARA BIDON</v>
       </c>
       <c r="D4">
-        <v>25.5</v>
+        <v>284367.7684911</v>
       </c>
     </row>
   </sheetData>
